--- a/ig/sd-jeu-de-valeur-phase-de-lessai/ValueSet-eclaire-study-phase-vs.xlsx
+++ b/ig/sd-jeu-de-valeur-phase-de-lessai/ValueSet-eclaire-study-phase-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from research-study-p" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from ResearchStudyPha" r:id="rId4" sheetId="2"/>
     <sheet name="Include from Définition des t" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T13:00:23+00:00</t>
+    <t>2023-07-28T15:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +103,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/research-study-phase</t>
+    <t>http://terminology.hl7.org/CodeSystem/research-study-phase</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/CodeSystem/eclaire-study-phase-code-system</t>
